--- a/TestingExploratorio.xlsx
+++ b/TestingExploratorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igu/Documents/UADE/Testing de aplicacioones /TestingAplicaciones-TPO/TestingAplicaciones--IDK--TPO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F81397-F768-B042-AB7A-1CBB77049E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBEA78E-BB26-4742-A5B2-42770104E07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{32003821-CA2F-5F41-8533-D985029D63C0}"/>
+    <workbookView xWindow="300" yWindow="1395" windowWidth="15420" windowHeight="11385" xr2:uid="{32003821-CA2F-5F41-8533-D985029D63C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>testing exploratorio sesion 1</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>La pagina no tiene requisitos para el password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
   </si>
 </sst>
 </file>
@@ -258,11 +261,59 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,55 +321,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,217 +638,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD3352B-DAFF-9A46-86ED-31A7D594E3B1}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="19" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:K3"/>
     <mergeCell ref="E10:K11"/>
     <mergeCell ref="A12:D13"/>
     <mergeCell ref="A10:D11"/>
@@ -857,11 +870,6 @@
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
